--- a/data/trans_orig/P32A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4867</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1710</v>
+        <v>1065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12181</v>
+        <v>11197</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01107831040709839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003893008719641193</v>
+        <v>0.002423391107137405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0277275028541792</v>
+        <v>0.02548665946442017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>4867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12306</v>
+        <v>12518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007863762009081128</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001731486926991029</v>
+        <v>0.001713951187304579</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01988315714239398</v>
+        <v>0.02022658450285202</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>434452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>427138</v>
+        <v>428122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>437609</v>
+        <v>438254</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9889216895929016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.972272497145821</v>
+        <v>0.9745133405355798</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9961069912803588</v>
+        <v>0.9975766088928626</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -841,19 +841,19 @@
         <v>614037</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>606598</v>
+        <v>606386</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>617832</v>
+        <v>617843</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9921362379909189</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9801168428576063</v>
+        <v>0.9797734154971482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9982685130730089</v>
+        <v>0.9982860488126954</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>4994</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1896</v>
+        <v>1882</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10788</v>
+        <v>11200</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008583052498094813</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003259095781724247</v>
+        <v>0.003233692217584417</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01854007598295234</v>
+        <v>0.01924750793500616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>4994</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1874</v>
+        <v>1978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10905</v>
+        <v>12175</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005804757982783851</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002177546455790303</v>
+        <v>0.002298514715354574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01267374273448695</v>
+        <v>0.01414975142314544</v>
       </c>
     </row>
     <row r="8">
@@ -1008,19 +1008,19 @@
         <v>576905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>571111</v>
+        <v>570699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>580003</v>
+        <v>580017</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9914169475019052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9814599240170477</v>
+        <v>0.9807524920649938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9967409042182758</v>
+        <v>0.9967663077824156</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>262</v>
@@ -1042,19 +1042,19 @@
         <v>855415</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>849504</v>
+        <v>848234</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>858535</v>
+        <v>858431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9941952420172161</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9873262572655133</v>
+        <v>0.9858502485768545</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9978224535442097</v>
+        <v>0.9977014852846454</v>
       </c>
     </row>
     <row r="9">
@@ -1146,19 +1146,19 @@
         <v>7613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3687</v>
+        <v>3474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14746</v>
+        <v>15247</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02299759850220558</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01113839232253167</v>
+        <v>0.0104933568351623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04454378106326029</v>
+        <v>0.04605784592075464</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4650</v>
+        <v>4664</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007086278670778249</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03567429552714259</v>
+        <v>0.03577864253781579</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1188,19 +1188,19 @@
         <v>8537</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3903</v>
+        <v>3945</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15322</v>
+        <v>15336</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0185024009296212</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008458486958033471</v>
+        <v>0.008549546441040291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0332095207988047</v>
+        <v>0.03323882258648399</v>
       </c>
     </row>
     <row r="11">
@@ -1217,19 +1217,19 @@
         <v>323424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>316291</v>
+        <v>315790</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>327350</v>
+        <v>327563</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9770024014977944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9554562189367397</v>
+        <v>0.9539421540792463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9888616076774684</v>
+        <v>0.9895066431648377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -1238,7 +1238,7 @@
         <v>129425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125699</v>
+        <v>125685</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>130349</v>
@@ -1247,7 +1247,7 @@
         <v>0.9929137213292217</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9643257044728575</v>
+        <v>0.9642213574621842</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>452849</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>446064</v>
+        <v>446050</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>457483</v>
+        <v>457441</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9814975990703788</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9667904792011955</v>
+        <v>0.9667611774135161</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9915415130419666</v>
+        <v>0.9914504535589597</v>
       </c>
     </row>
     <row r="12">
@@ -1363,19 +1363,19 @@
         <v>2614</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6990</v>
+        <v>7880</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004945107754303115</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001600155333353931</v>
+        <v>0.001591577764586112</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01322290702426571</v>
+        <v>0.01490613836761099</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6156</v>
+        <v>6869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006671983015768654</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02017912324036148</v>
+        <v>0.02251726668981709</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1405,19 +1405,19 @@
         <v>4650</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10649</v>
+        <v>11125</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005576977109349156</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002083173152843782</v>
+        <v>0.002077262907864881</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01277290640123174</v>
+        <v>0.01334413592235209</v>
       </c>
     </row>
     <row r="14">
@@ -1434,19 +1434,19 @@
         <v>526035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>521659</v>
+        <v>520769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>527803</v>
+        <v>527808</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9950548922456969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9867770929757343</v>
+        <v>0.985093861632389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.998399844666646</v>
+        <v>0.9984084222354139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>292</v>
@@ -1455,7 +1455,7 @@
         <v>303020</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>298899</v>
+        <v>298186</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>305055</v>
@@ -1464,7 +1464,7 @@
         <v>0.9933280169842313</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9798208767596385</v>
+        <v>0.977482733310183</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1476,19 +1476,19 @@
         <v>829054</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>823055</v>
+        <v>822579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>831967</v>
+        <v>831972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9944230228906509</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9872270935987681</v>
+        <v>0.9866558640776476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9979168268471562</v>
+        <v>0.9979227370921352</v>
       </c>
     </row>
     <row r="15">
@@ -1580,19 +1580,19 @@
         <v>20089</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12327</v>
+        <v>13155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30191</v>
+        <v>31348</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01068032722022275</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006553849995549054</v>
+        <v>0.006994169884733087</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01605121709184693</v>
+        <v>0.01666670361010787</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1601,19 +1601,19 @@
         <v>2959</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003311710099870096</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1622,19 +1622,19 @@
         <v>23048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14843</v>
+        <v>15207</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34336</v>
+        <v>34834</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00830725709611568</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00534995931607798</v>
+        <v>0.005481135541557372</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01237587289231625</v>
+        <v>0.01255567199229491</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>1860815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1850713</v>
+        <v>1849556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1868577</v>
+        <v>1867749</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9893196727797773</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9839487829081536</v>
+        <v>0.9833332963898922</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.993446150004451</v>
+        <v>0.993005830115267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>870</v>
@@ -1672,19 +1672,19 @@
         <v>890540</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>885385</v>
+        <v>885416</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>892577</v>
+        <v>893148</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9966882899001299</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9909192893621036</v>
+        <v>0.9909538819685459</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9989680730795941</v>
+        <v>0.999606759373823</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2696</v>
@@ -1693,19 +1693,19 @@
         <v>2751355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2740067</v>
+        <v>2739569</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2759560</v>
+        <v>2759196</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9916927429038843</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9876241271076841</v>
+        <v>0.9874443280077053</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9946500406839222</v>
+        <v>0.9945188644584428</v>
       </c>
     </row>
     <row r="18">
@@ -2037,19 +2037,19 @@
         <v>6372</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2670</v>
+        <v>2770</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12809</v>
+        <v>12674</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01495682521926387</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006267624715009875</v>
+        <v>0.006501736831958107</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03006590450539767</v>
+        <v>0.02974877563726009</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2058,19 +2058,19 @@
         <v>4167</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1187</v>
+        <v>1162</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10731</v>
+        <v>9626</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02375847110342702</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006764934884684926</v>
+        <v>0.006625015723587816</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06118427436466507</v>
+        <v>0.05488046130981626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2079,19 +2079,19 @@
         <v>10539</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5207</v>
+        <v>5760</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17735</v>
+        <v>17857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0175236160903466</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008656818188354645</v>
+        <v>0.009577130997779217</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02948708181118437</v>
+        <v>0.02969063430199231</v>
       </c>
     </row>
     <row r="5">
@@ -2108,19 +2108,19 @@
         <v>419672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413235</v>
+        <v>413370</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>423374</v>
+        <v>423274</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9850431747807361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9699340954946023</v>
+        <v>0.9702512243627402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9937323752849901</v>
+        <v>0.9934982631680419</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -2129,19 +2129,19 @@
         <v>171229</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>164665</v>
+        <v>165770</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174209</v>
+        <v>174234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.976241528896573</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9388157256353351</v>
+        <v>0.9451195386901837</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9932350651153151</v>
+        <v>0.9933749842764121</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>560</v>
@@ -2150,19 +2150,19 @@
         <v>590901</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>583705</v>
+        <v>583583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>596233</v>
+        <v>595680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9824763839096534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9705129181888157</v>
+        <v>0.9703093656980076</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9913431818116454</v>
+        <v>0.9904228690022208</v>
       </c>
     </row>
     <row r="6">
@@ -2254,19 +2254,19 @@
         <v>12085</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5501</v>
+        <v>5111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22688</v>
+        <v>23489</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02039477475269992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009282964874396882</v>
+        <v>0.008624903302250875</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03828857680838571</v>
+        <v>0.03963915873276239</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5146</v>
+        <v>6666</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003468956531862952</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.017359374725311</v>
+        <v>0.02248365513237523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2296,19 +2296,19 @@
         <v>13113</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6375</v>
+        <v>6408</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26094</v>
+        <v>24857</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01475053507849912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007170696676536531</v>
+        <v>0.007207764493596845</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02935154674491619</v>
+        <v>0.02796039658868646</v>
       </c>
     </row>
     <row r="8">
@@ -2325,19 +2325,19 @@
         <v>580473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>569870</v>
+        <v>569069</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>587057</v>
+        <v>587447</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9796052252473001</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9617114231916148</v>
+        <v>0.9603608412672376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9907170351256032</v>
+        <v>0.991375096697749</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>270</v>
@@ -2346,7 +2346,7 @@
         <v>295432</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>291314</v>
+        <v>289794</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>296460</v>
@@ -2355,7 +2355,7 @@
         <v>0.996531043468137</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9826406252746889</v>
+        <v>0.9775163448676241</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2367,19 +2367,19 @@
         <v>875905</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>862924</v>
+        <v>864161</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>882643</v>
+        <v>882610</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9852494649215009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9706484532550836</v>
+        <v>0.9720396034113138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9928293033234634</v>
+        <v>0.9927922355064033</v>
       </c>
     </row>
     <row r="9">
@@ -2471,19 +2471,19 @@
         <v>16071</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9382</v>
+        <v>8422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27653</v>
+        <v>27218</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03496520598159879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02041256379476853</v>
+        <v>0.01832314893617617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06016471747237446</v>
+        <v>0.0592171885108588</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2505,19 +2505,19 @@
         <v>16071</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9316</v>
+        <v>8804</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26828</v>
+        <v>28403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02408092710810292</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01395920428351038</v>
+        <v>0.01319244514824197</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04019893740012861</v>
+        <v>0.04255885346295223</v>
       </c>
     </row>
     <row r="11">
@@ -2534,19 +2534,19 @@
         <v>443556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>431974</v>
+        <v>432409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>450245</v>
+        <v>451205</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9650347940184012</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9398352825276259</v>
+        <v>0.9407828114891413</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9795874362052316</v>
+        <v>0.9816768510638239</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>182</v>
@@ -2568,19 +2568,19 @@
         <v>651302</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640545</v>
+        <v>638970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658057</v>
+        <v>658569</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9759190728918971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9598010625998713</v>
+        <v>0.9574411465370476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9860407957164896</v>
+        <v>0.986807554851758</v>
       </c>
     </row>
     <row r="12">
@@ -2672,19 +2672,19 @@
         <v>17132</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10205</v>
+        <v>10908</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26086</v>
+        <v>25931</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03075006584988947</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01831626096786088</v>
+        <v>0.01957859713994948</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04681976399741633</v>
+        <v>0.04654170524981994</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -2693,19 +2693,19 @@
         <v>3797</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10572</v>
+        <v>12075</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01040845610997591</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002438302231462736</v>
+        <v>0.002460063386325242</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02897681443985517</v>
+        <v>0.03309641796959393</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -2714,19 +2714,19 @@
         <v>20930</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13443</v>
+        <v>13142</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32417</v>
+        <v>32483</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02270064817590322</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01458058551509321</v>
+        <v>0.01425410182786973</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03516007695290142</v>
+        <v>0.03523134171583831</v>
       </c>
     </row>
     <row r="14">
@@ -2743,19 +2743,19 @@
         <v>540018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>531064</v>
+        <v>531219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>546945</v>
+        <v>546242</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9692499341501105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9531802360025832</v>
+        <v>0.9534582947501801</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9816837390321391</v>
+        <v>0.9804214028600503</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>340</v>
@@ -2764,19 +2764,19 @@
         <v>361047</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>354272</v>
+        <v>352769</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363954</v>
+        <v>363946</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9895915438900241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9710231855601456</v>
+        <v>0.9669035820304064</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9975616977685372</v>
+        <v>0.9975399366136748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>861</v>
@@ -2785,19 +2785,19 @@
         <v>901065</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>889578</v>
+        <v>889512</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>908552</v>
+        <v>908853</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9772993518240968</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9648399230470986</v>
+        <v>0.9647686582841618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9854194144849068</v>
+        <v>0.9857458981721303</v>
       </c>
     </row>
     <row r="15">
@@ -2889,19 +2889,19 @@
         <v>51661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36939</v>
+        <v>38080</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68835</v>
+        <v>67956</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02538136876123935</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01814867028367212</v>
+        <v>0.01870920448803541</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03381922781528899</v>
+        <v>0.03338733225922886</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -2910,19 +2910,19 @@
         <v>8993</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3958</v>
+        <v>4152</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17886</v>
+        <v>17813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008610313003841706</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00378960129705333</v>
+        <v>0.0039753201607172</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01712486952277045</v>
+        <v>0.01705469296001155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -2931,19 +2931,19 @@
         <v>60654</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46242</v>
+        <v>46185</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78836</v>
+        <v>79027</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01969388441311008</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01501451755682503</v>
+        <v>0.0149960137151997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02559755530060259</v>
+        <v>0.0256594154309164</v>
       </c>
     </row>
     <row r="17">
@@ -2960,19 +2960,19 @@
         <v>1983719</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1966545</v>
+        <v>1967424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1998441</v>
+        <v>1997300</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9746186312387607</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.966180772184711</v>
+        <v>0.9666126677407711</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9818513297163279</v>
+        <v>0.9812907955119646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>951</v>
@@ -2981,19 +2981,19 @@
         <v>1035453</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1026560</v>
+        <v>1026633</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1040488</v>
+        <v>1040294</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9913896869961583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9828751304772306</v>
+        <v>0.9829453070399884</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9962103987029467</v>
+        <v>0.9960246798392828</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2817</v>
@@ -3002,19 +3002,19 @@
         <v>3019173</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3000991</v>
+        <v>3000800</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3033585</v>
+        <v>3033642</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.98030611558689</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9744024446993973</v>
+        <v>0.9743405845690839</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.984985482443175</v>
+        <v>0.9850039862848006</v>
       </c>
     </row>
     <row r="18">
@@ -3346,19 +3346,19 @@
         <v>6644</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3153</v>
+        <v>2376</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14640</v>
+        <v>13916</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01546049687335617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007337568104461319</v>
+        <v>0.00553005115693192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03406889493433692</v>
+        <v>0.03238277162680733</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8044</v>
+        <v>8224</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01241296993285908</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04335736779293133</v>
+        <v>0.04432837619318255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -3388,19 +3388,19 @@
         <v>8947</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4231</v>
+        <v>4366</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16864</v>
+        <v>17936</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01454154114518943</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00687613017630407</v>
+        <v>0.007096080103422688</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02741043133283321</v>
+        <v>0.02915224000776395</v>
       </c>
     </row>
     <row r="5">
@@ -3417,19 +3417,19 @@
         <v>423086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415090</v>
+        <v>415814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426577</v>
+        <v>427354</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9845395031266438</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9659311050656633</v>
+        <v>0.9676172283731932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9926624318955387</v>
+        <v>0.9944699488430682</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>190</v>
@@ -3438,7 +3438,7 @@
         <v>183222</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177481</v>
+        <v>177301</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>185525</v>
@@ -3447,7 +3447,7 @@
         <v>0.9875870300671409</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9566426322070686</v>
+        <v>0.9556716238068172</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3459,19 +3459,19 @@
         <v>606308</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>598391</v>
+        <v>597319</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>611024</v>
+        <v>610889</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9854584588548105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9725895686671668</v>
+        <v>0.970847759992236</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9931238698236959</v>
+        <v>0.9929039198965773</v>
       </c>
     </row>
     <row r="6">
@@ -3563,19 +3563,19 @@
         <v>16896</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9870</v>
+        <v>10452</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27119</v>
+        <v>26333</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02940753434952204</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0171778533543944</v>
+        <v>0.01819190495278893</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04720059367269416</v>
+        <v>0.04583245323693395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -3584,19 +3584,19 @@
         <v>3031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8232</v>
+        <v>8396</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00937647970242006</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002900112711914613</v>
+        <v>0.002917142269132325</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02546558292801706</v>
+        <v>0.02597386438497773</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -3605,19 +3605,19 @@
         <v>19927</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11856</v>
+        <v>12647</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29891</v>
+        <v>31506</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.022195288736192</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01320592820667082</v>
+        <v>0.01408600421668024</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03329264291239322</v>
+        <v>0.03509180980589378</v>
       </c>
     </row>
     <row r="8">
@@ -3634,19 +3634,19 @@
         <v>557659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>547436</v>
+        <v>548222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>564685</v>
+        <v>564103</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.970592465650478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9527994063273058</v>
+        <v>0.9541675467630661</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9828221466456056</v>
+        <v>0.9818080950472113</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>305</v>
@@ -3655,19 +3655,19 @@
         <v>320231</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>315030</v>
+        <v>314866</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322325</v>
+        <v>322319</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9906235202975799</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9745344170719829</v>
+        <v>0.9740261356150225</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9970998872880854</v>
+        <v>0.9970828577308677</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>821</v>
@@ -3676,19 +3676,19 @@
         <v>877889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>867925</v>
+        <v>866310</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>885960</v>
+        <v>885169</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.977804711263808</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9667073570876067</v>
+        <v>0.9649081901941065</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.986794071793329</v>
+        <v>0.9859139957833198</v>
       </c>
     </row>
     <row r="9">
@@ -3780,19 +3780,19 @@
         <v>8447</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3314</v>
+        <v>3930</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15850</v>
+        <v>15254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01992595576774841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007818325916148682</v>
+        <v>0.009272172871128789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03739025161229197</v>
+        <v>0.03598433764886885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4828</v>
+        <v>4796</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004173607241436634</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02102031134991019</v>
+        <v>0.02088319346612927</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3822,19 +3822,19 @@
         <v>9405</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4328</v>
+        <v>5050</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17714</v>
+        <v>17686</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01439049456866871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006622124409768405</v>
+        <v>0.00772701663717654</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02710334084895757</v>
+        <v>0.02706013050804831</v>
       </c>
     </row>
     <row r="11">
@@ -3851,19 +3851,19 @@
         <v>415452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>408049</v>
+        <v>408645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>420585</v>
+        <v>419969</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9800740442322516</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9626097483877089</v>
+        <v>0.9640156623511312</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9921816740838514</v>
+        <v>0.9907278271288712</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -3872,7 +3872,7 @@
         <v>228708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>224839</v>
+        <v>224871</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>229667</v>
@@ -3881,7 +3881,7 @@
         <v>0.9958263927585633</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9789796886500899</v>
+        <v>0.9791168065338708</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3893,19 +3893,19 @@
         <v>644161</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635852</v>
+        <v>635880</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649238</v>
+        <v>648516</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9856095054313313</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9728966591510427</v>
+        <v>0.9729398694919499</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9933778755902316</v>
+        <v>0.9922729833628234</v>
       </c>
     </row>
     <row r="12">
@@ -3997,19 +3997,19 @@
         <v>8025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3264</v>
+        <v>3205</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14571</v>
+        <v>15114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01400071598207145</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005695429664965013</v>
+        <v>0.005591248693218031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02542120820374601</v>
+        <v>0.02636903273987015</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4018,19 +4018,19 @@
         <v>9191</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4265</v>
+        <v>4204</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17991</v>
+        <v>18416</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02259040906870079</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01048249279595578</v>
+        <v>0.0103326524733287</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04421928520021297</v>
+        <v>0.04526448691999998</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -4039,19 +4039,19 @@
         <v>17216</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10396</v>
+        <v>9828</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26811</v>
+        <v>27763</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01756669718693585</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01060737278167416</v>
+        <v>0.01002834237100708</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02735758432854959</v>
+        <v>0.02832818372323071</v>
       </c>
     </row>
     <row r="14">
@@ -4068,19 +4068,19 @@
         <v>565153</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>558607</v>
+        <v>558064</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>569914</v>
+        <v>569973</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9859992840179286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9745787917962538</v>
+        <v>0.9736309672601298</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9943045703350349</v>
+        <v>0.994408751306782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>369</v>
@@ -4089,19 +4089,19 @@
         <v>397668</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388868</v>
+        <v>388443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>402594</v>
+        <v>402655</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9774095909312992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9557807147997868</v>
+        <v>0.954735513079999</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9895175072040441</v>
+        <v>0.9896673475266713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>928</v>
@@ -4110,19 +4110,19 @@
         <v>962821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>953226</v>
+        <v>952274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>969641</v>
+        <v>970209</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9824333028130642</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9726424156714504</v>
+        <v>0.9716718162767691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9893926272183258</v>
+        <v>0.9899716576289928</v>
       </c>
     </row>
     <row r="15">
@@ -4214,19 +4214,19 @@
         <v>40012</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28826</v>
+        <v>27784</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53504</v>
+        <v>54440</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0199921725099144</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01440299018189199</v>
+        <v>0.01388254730379938</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02673361592792014</v>
+        <v>0.02720169174189093</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4235,19 +4235,19 @@
         <v>15484</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8453</v>
+        <v>8664</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25982</v>
+        <v>25490</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01351912809843498</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007380111584790931</v>
+        <v>0.007565173891796469</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02268570669374467</v>
+        <v>0.02225593362223846</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -4256,19 +4256,19 @@
         <v>55495</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42239</v>
+        <v>42541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71518</v>
+        <v>73274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01763614337582197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01342338800477017</v>
+        <v>0.01351940162931248</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02272798605609453</v>
+        <v>0.02328616081257612</v>
       </c>
     </row>
     <row r="17">
@@ -4285,19 +4285,19 @@
         <v>1961350</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1947858</v>
+        <v>1946922</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1972536</v>
+        <v>1973578</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9800078274900856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9732663840720799</v>
+        <v>0.9727983082581091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9855970098181079</v>
+        <v>0.9861174526962005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1081</v>
@@ -4306,19 +4306,19 @@
         <v>1129828</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1119330</v>
+        <v>1119822</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1136859</v>
+        <v>1136648</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.986480871901565</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9773142933062555</v>
+        <v>0.9777440663777616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9926198884152091</v>
+        <v>0.9924348261082035</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2938</v>
@@ -4327,19 +4327,19 @@
         <v>3091179</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3075156</v>
+        <v>3073400</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3104435</v>
+        <v>3104133</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.982363856624178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9772720139439055</v>
+        <v>0.9767138391874239</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9865766119952303</v>
+        <v>0.9864805983706876</v>
       </c>
     </row>
     <row r="18">
@@ -4671,19 +4671,19 @@
         <v>5019</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2136</v>
+        <v>2180</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10795</v>
+        <v>11088</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01421298455350593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006049561014554518</v>
+        <v>0.006171825134999102</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03056704969991716</v>
+        <v>0.03139829662777242</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4621</v>
+        <v>4879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00761339573985411</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02669667754640713</v>
+        <v>0.02819074785517427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4713,19 +4713,19 @@
         <v>6337</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3016</v>
+        <v>3191</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12415</v>
+        <v>12710</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01204234847913238</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005730822592206538</v>
+        <v>0.006063499727110878</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02359171726769026</v>
+        <v>0.0241524952611688</v>
       </c>
     </row>
     <row r="5">
@@ -4742,19 +4742,19 @@
         <v>348136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>342360</v>
+        <v>342067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>351019</v>
+        <v>350975</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9857870154464942</v>
+        <v>0.9857870154464941</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9694329503000827</v>
+        <v>0.9686017033722271</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9939504389854454</v>
+        <v>0.993828174865001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -4763,7 +4763,7 @@
         <v>171764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>168461</v>
+        <v>168203</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>173082</v>
@@ -4772,7 +4772,7 @@
         <v>0.9923866042601459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9733033224535927</v>
+        <v>0.9718092521448255</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4784,19 +4784,19 @@
         <v>519900</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>513822</v>
+        <v>513527</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>523221</v>
+        <v>523046</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9879576515208676</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9764082827323097</v>
+        <v>0.9758475047388312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9942691774077936</v>
+        <v>0.9939365002728895</v>
       </c>
     </row>
     <row r="6">
@@ -4888,19 +4888,19 @@
         <v>7970</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3868</v>
+        <v>3672</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13932</v>
+        <v>14924</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01591660096034997</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007724904247063053</v>
+        <v>0.007333167514978704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02782446202346953</v>
+        <v>0.0298050836678561</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -4909,19 +4909,19 @@
         <v>6422</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3016</v>
+        <v>2568</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12703</v>
+        <v>13121</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02877106378388894</v>
+        <v>0.02877106378388893</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01351157843082795</v>
+        <v>0.01150431782388638</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05691644322115296</v>
+        <v>0.05878643316298372</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -4930,19 +4930,19 @@
         <v>14391</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8542</v>
+        <v>8672</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22003</v>
+        <v>22219</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01987982687844203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01179977265349322</v>
+        <v>0.01197935524815246</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03039381273677192</v>
+        <v>0.03069329527727586</v>
       </c>
     </row>
     <row r="8">
@@ -4959,19 +4959,19 @@
         <v>492753</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486791</v>
+        <v>485799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>496855</v>
+        <v>497051</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9840833990396503</v>
+        <v>0.9840833990396501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9721755379765304</v>
+        <v>0.9701949163321442</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9922750957529369</v>
+        <v>0.9926668324850213</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>280</v>
@@ -4980,19 +4980,19 @@
         <v>216773</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>210492</v>
+        <v>210074</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>220179</v>
+        <v>220627</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9712289362161112</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.943083556778847</v>
+        <v>0.9412135668370162</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.986488421569172</v>
+        <v>0.9884956821761135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>713</v>
@@ -5001,19 +5001,19 @@
         <v>709527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>701915</v>
+        <v>701699</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>715376</v>
+        <v>715246</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9801201731215579</v>
+        <v>0.9801201731215581</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9696061872632279</v>
+        <v>0.9693067047227237</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9882002273465066</v>
+        <v>0.9880206447518476</v>
       </c>
     </row>
     <row r="9">
@@ -5105,19 +5105,19 @@
         <v>6116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2117</v>
+        <v>2671</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12896</v>
+        <v>14683</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01723190138825254</v>
+        <v>0.01723190138825253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005965323229815453</v>
+        <v>0.007527304239646268</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03633552799201847</v>
+        <v>0.04137111320244928</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5126,19 +5126,19 @@
         <v>6225</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2221</v>
+        <v>2189</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16215</v>
+        <v>14966</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03215572433745184</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01147385595922256</v>
+        <v>0.01130573427636827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08376151415265344</v>
+        <v>0.07731030900087688</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -5147,19 +5147,19 @@
         <v>12341</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6340</v>
+        <v>6447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24108</v>
+        <v>21154</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02249922622966423</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01155896907759172</v>
+        <v>0.01175471062852141</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04395322317376349</v>
+        <v>0.0385686146103339</v>
       </c>
     </row>
     <row r="11">
@@ -5176,19 +5176,19 @@
         <v>348785</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>342005</v>
+        <v>340218</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>352784</v>
+        <v>352230</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9827680986117474</v>
+        <v>0.9827680986117475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9636644720079791</v>
+        <v>0.9586288867975488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9940346767701842</v>
+        <v>0.9924726957603534</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>235</v>
@@ -5197,19 +5197,19 @@
         <v>187363</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>177373</v>
+        <v>178622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>191367</v>
+        <v>191399</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.967844275662548</v>
+        <v>0.9678442756625483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9162384858473465</v>
+        <v>0.9226896909991218</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9885261440407773</v>
+        <v>0.9886942657236317</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>528</v>
@@ -5218,19 +5218,19 @@
         <v>536148</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>524381</v>
+        <v>527335</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>542149</v>
+        <v>542042</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.977500773770336</v>
+        <v>0.9775007737703358</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9560467768262363</v>
+        <v>0.9614313853896658</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9884410309224083</v>
+        <v>0.9882452893714785</v>
       </c>
     </row>
     <row r="12">
@@ -5322,19 +5322,19 @@
         <v>11331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6404</v>
+        <v>6192</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18657</v>
+        <v>18105</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02439218395308032</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01378557495080273</v>
+        <v>0.0133305973438076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0401636738291784</v>
+        <v>0.03897525997794554</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -5343,19 +5343,19 @@
         <v>5411</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2103</v>
+        <v>2068</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14100</v>
+        <v>14252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01757606978457515</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006830760144905329</v>
+        <v>0.006718873259773006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04580165243972614</v>
+        <v>0.04629717693140026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -5364,19 +5364,19 @@
         <v>16741</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10259</v>
+        <v>10077</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26136</v>
+        <v>26325</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02167547730145429</v>
+        <v>0.02167547730145428</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01328283236511001</v>
+        <v>0.01304634016211107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03383900355625906</v>
+        <v>0.03408360645937645</v>
       </c>
     </row>
     <row r="14">
@@ -5393,19 +5393,19 @@
         <v>453192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>445866</v>
+        <v>446418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>458119</v>
+        <v>458331</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9756078160469197</v>
+        <v>0.9756078160469196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9598363261708215</v>
+        <v>0.9610247400220548</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9862144250491972</v>
+        <v>0.9866694026561924</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>410</v>
@@ -5414,19 +5414,19 @@
         <v>302432</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>293743</v>
+        <v>293591</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>305740</v>
+        <v>305775</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9824239302154248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9541983475602736</v>
+        <v>0.9537028230685985</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9931692398550948</v>
+        <v>0.9932811267402265</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>880</v>
@@ -5435,19 +5435,19 @@
         <v>755625</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>746230</v>
+        <v>746041</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>762107</v>
+        <v>762289</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9783245226985458</v>
+        <v>0.9783245226985455</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9661609964437408</v>
+        <v>0.9659163935406236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9867171676348898</v>
+        <v>0.986953659837889</v>
       </c>
     </row>
     <row r="15">
@@ -5539,19 +5539,19 @@
         <v>30436</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21682</v>
+        <v>21930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42658</v>
+        <v>42250</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01818891211447395</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0129575261908821</v>
+        <v>0.01310594502918397</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02549346045865339</v>
+        <v>0.02524922090805205</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -5560,19 +5560,19 @@
         <v>19375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11718</v>
+        <v>11423</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31269</v>
+        <v>31311</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02158266978621578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01305299500146801</v>
+        <v>0.012725000987786</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03483249737062398</v>
+        <v>0.03487899208158756</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -5581,19 +5581,19 @@
         <v>49810</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37604</v>
+        <v>37560</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64464</v>
+        <v>65654</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01937389432992979</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01462620364488456</v>
+        <v>0.01460905786503916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02507357394948062</v>
+        <v>0.02553641941051289</v>
       </c>
     </row>
     <row r="17">
@@ -5610,19 +5610,19 @@
         <v>1642867</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1630645</v>
+        <v>1631053</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1651621</v>
+        <v>1651373</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9818110878855257</v>
+        <v>0.9818110878855262</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9745065395413466</v>
+        <v>0.9747507790919481</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9870424738091178</v>
+        <v>0.9868940549708159</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1173</v>
@@ -5631,19 +5631,19 @@
         <v>878332</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>866438</v>
+        <v>866396</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>885989</v>
+        <v>886284</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9784173302137842</v>
+        <v>0.9784173302137843</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9651675026293762</v>
+        <v>0.9651210079184124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9869470049985324</v>
+        <v>0.9872749990122137</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2718</v>
@@ -5652,19 +5652,19 @@
         <v>2521200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2506546</v>
+        <v>2505356</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2533406</v>
+        <v>2533450</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9806261056700702</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9749264260505194</v>
+        <v>0.9744635805894872</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9853737963551154</v>
+        <v>0.9853909421349608</v>
       </c>
     </row>
     <row r="18">
